--- a/biology/Botanique/Tortula/Tortula.xlsx
+++ b/biology/Botanique/Tortula/Tortula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tortula ou Tortule est un genre de mousses de la famille des Pottiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tortula vient du latin tortus, « tordu », en référence aux dents longues et légèrement tordues du péristome autour de l'embouchure de la capsule de ces mousses[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tortula vient du latin tortus, « tordu », en référence aux dents longues et légèrement tordues du péristome autour de l'embouchure de la capsule de ces mousses.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (18 novembre 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (18 novembre 2018) :
 Tortula acaulon (With.) R. H. Zander
 Tortula ammonsiana Crum &amp; Anderson
 Tortula amphidiacea (C. Müll.) Broth.
@@ -579,7 +595,7 @@
 Tortula stanfordensis Steere
 Tortula subulata Hedw.
 Tortula truncata (Hedw.) Mitt.
-Selon Catalogue of Life                                   (18 novembre 2018)[4] :
+Selon Catalogue of Life                                   (18 novembre 2018) :
 Tortula abyssinica De Notaris, 1872
 Tortula acaulon Zander, 1993
 Tortula aculeonervis Brotherus, 1902
@@ -724,7 +740,7 @@
 Tortula xerophila Herzog, 1916
 Tortula yuennanensis Chen Pan-chieh, 1941
 Tortula zoddae Zander, 1993
-Selon ITIS      (18 novembre 2018)[5] :
+Selon ITIS      (18 novembre 2018) :
 variété Tortula laevipila var. laevipila (Brid.) Schwaegr.
 variété Tortula laevipila var. meridionalis (Schimp.) Wijk &amp; Marg.
 Tortula amnonsiana Crum &amp; Anders.
@@ -757,7 +773,7 @@
 Tortula stanfordensis Steere
 Tortula subulata Hedw.
 Tortula virescens (De Not.) De Not.
-Selon The Plant List            (18 novembre 2018)[6] :
+Selon The Plant List            (18 novembre 2018) :
 Tortula abyssinica De Not.
 Tortula acaulon (With.) R.H. Zander
 Tortula aculeonervis (Müll. Hal.) Broth.
@@ -1167,7 +1183,7 @@
 Tortula xerophila Herzog
 Tortula yuennanensis P.C. Chen
 Tortula zoddae R.H. Zander
-Selon Tropicos                                           (18 novembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (18 novembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Tortula abranchesii Luisier
 Tortula abruptinervis Dixon
 Tortula abyssinica De Not.
@@ -1497,7 +1513,7 @@
 Tortula laevipiliformis De Not.
 Tortula laeviuscula (Kindb.) Broth.
 Tortula lamellata Lindb.
-Tortula lamp</t>
+Tortula lamprocalyx (Müll. </t>
         </is>
       </c>
     </row>
